--- a/Tables/2_2_1s_normal_vars_sig_t_tests.xlsx
+++ b/Tables/2_2_1s_normal_vars_sig_t_tests.xlsx
@@ -498,10 +498,10 @@
         <v>-5.347677368817099</v>
       </c>
       <c r="G2" t="n">
-        <v>6.08055494826469e-07</v>
+        <v>6.080554948264692e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001781602599841554</v>
+        <v>0.0001781602599841555</v>
       </c>
     </row>
     <row r="3">
@@ -532,7 +532,7 @@
         <v>4.710475901236488</v>
       </c>
       <c r="G3" t="n">
-        <v>8.266479905901807e-06</v>
+        <v>8.26647990590181e-06</v>
       </c>
       <c r="H3" t="n">
         <v>0.001211039306214615</v>
@@ -600,7 +600,7 @@
         <v>-4.529597309074743</v>
       </c>
       <c r="G5" t="n">
-        <v>1.84661702709905e-05</v>
+        <v>1.846617027099051e-05</v>
       </c>
       <c r="H5" t="n">
         <v>0.001720442794118883</v>
@@ -668,7 +668,7 @@
         <v>-4.309304083227995</v>
       </c>
       <c r="G7" t="n">
-        <v>3.933711011778768e-05</v>
+        <v>3.933711011778769e-05</v>
       </c>
       <c r="H7" t="n">
         <v>0.001742979664900033</v>
@@ -702,7 +702,7 @@
         <v>-4.384496559293985</v>
       </c>
       <c r="G8" t="n">
-        <v>2.993946664020597e-05</v>
+        <v>2.993946664020602e-05</v>
       </c>
       <c r="H8" t="n">
         <v>0.001742979664900033</v>
@@ -736,7 +736,7 @@
         <v>-4.128004845723478</v>
       </c>
       <c r="G9" t="n">
-        <v>7.964208573023994e-05</v>
+        <v>7.964208573023993e-05</v>
       </c>
       <c r="H9" t="n">
         <v>0.00233351311189603</v>
@@ -770,7 +770,7 @@
         <v>4.13026301470429</v>
       </c>
       <c r="G10" t="n">
-        <v>7.76217669417991e-05</v>
+        <v>7.762176694179907e-05</v>
       </c>
       <c r="H10" t="n">
         <v>0.00233351311189603</v>
@@ -804,7 +804,7 @@
         <v>-4.146584880290766</v>
       </c>
       <c r="G11" t="n">
-        <v>7.458256155581836e-05</v>
+        <v>7.458256155581834e-05</v>
       </c>
       <c r="H11" t="n">
         <v>0.00233351311189603</v>
@@ -838,10 +838,10 @@
         <v>4.060134871731655</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001019533334109504</v>
+        <v>0.0001019533334109503</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002715666062673496</v>
+        <v>0.002715666062673495</v>
       </c>
     </row>
     <row r="13">
@@ -940,10 +940,10 @@
         <v>3.789615738676278</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0002620067396075705</v>
+        <v>0.0002620067396075706</v>
       </c>
       <c r="H15" t="n">
-        <v>0.005483426764644154</v>
+        <v>0.005483426764644155</v>
       </c>
     </row>
     <row r="16">
@@ -974,10 +974,10 @@
         <v>3.744804789904985</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0003066137184800536</v>
+        <v>0.0003066137184800537</v>
       </c>
       <c r="H16" t="n">
-        <v>0.005567733140128304</v>
+        <v>0.005567733140128301</v>
       </c>
     </row>
     <row r="17">
@@ -1008,10 +1008,10 @@
         <v>3.72947634182577</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0003230425371405501</v>
+        <v>0.0003230425371405499</v>
       </c>
       <c r="H17" t="n">
-        <v>0.005567733140128304</v>
+        <v>0.005567733140128301</v>
       </c>
     </row>
     <row r="18">
@@ -1045,7 +1045,7 @@
         <v>0.0003037441075984679</v>
       </c>
       <c r="H18" t="n">
-        <v>0.005567733140128304</v>
+        <v>0.005567733140128301</v>
       </c>
     </row>
     <row r="19">
@@ -1079,7 +1079,7 @@
         <v>0.00035307310567917</v>
       </c>
       <c r="H19" t="n">
-        <v>0.005747245553555378</v>
+        <v>0.005747245553555379</v>
       </c>
     </row>
     <row r="20">
@@ -1144,10 +1144,10 @@
         <v>3.628628452205442</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0004568756030280132</v>
+        <v>0.0004568756030280131</v>
       </c>
       <c r="H21" t="n">
-        <v>0.006693227584360394</v>
+        <v>0.006693227584360392</v>
       </c>
     </row>
     <row r="22">
@@ -1178,10 +1178,10 @@
         <v>3.540886253012494</v>
       </c>
       <c r="G22" t="n">
-        <v>0.000619465649414556</v>
+        <v>0.0006194656494145558</v>
       </c>
       <c r="H22" t="n">
-        <v>0.008643020727545948</v>
+        <v>0.008643020727545945</v>
       </c>
     </row>
     <row r="23">
@@ -1314,10 +1314,10 @@
         <v>3.303611982360867</v>
       </c>
       <c r="G26" t="n">
-        <v>0.001340535921731945</v>
+        <v>0.001340535921731944</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01510680865644076</v>
+        <v>0.01510680865644075</v>
       </c>
     </row>
     <row r="27">
@@ -1351,7 +1351,7 @@
         <v>0.001290767146589232</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01510680865644076</v>
+        <v>0.01510680865644075</v>
       </c>
     </row>
     <row r="28">
@@ -1385,7 +1385,7 @@
         <v>0.001503470900203739</v>
       </c>
       <c r="H28" t="n">
-        <v>0.01631544347258132</v>
+        <v>0.01631544347258131</v>
       </c>
     </row>
     <row r="29">
@@ -1419,7 +1419,7 @@
         <v>0.001618348637881034</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01693486253211224</v>
+        <v>0.01693486253211225</v>
       </c>
     </row>
     <row r="30">
@@ -1521,7 +1521,7 @@
         <v>0.002767325993165256</v>
       </c>
       <c r="H32" t="n">
-        <v>0.02615569406443291</v>
+        <v>0.0261556940644329</v>
       </c>
     </row>
     <row r="33">
@@ -1555,7 +1555,7 @@
         <v>0.004079309070055001</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0373511736726911</v>
+        <v>0.03735117367269111</v>
       </c>
     </row>
     <row r="34">
@@ -1620,7 +1620,7 @@
         <v>2.920153176235853</v>
       </c>
       <c r="G35" t="n">
-        <v>0.004362138284008872</v>
+        <v>0.004362138284008873</v>
       </c>
       <c r="H35" t="n">
         <v>0.03787276632195786</v>
@@ -1722,10 +1722,10 @@
         <v>-2.821187335502809</v>
       </c>
       <c r="G38" t="n">
-        <v>0.005804652567599232</v>
+        <v>0.005804652567599235</v>
       </c>
       <c r="H38" t="n">
-        <v>0.04596657303531284</v>
+        <v>0.04596657303531286</v>
       </c>
     </row>
   </sheetData>
